--- a/COMPARACAO_PRAZOS/Comparacao_Prazos.xlsx
+++ b/COMPARACAO_PRAZOS/Comparacao_Prazos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,14 +511,14 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>DIAS P/ ENTREGA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>DIAS P/ ENTREGA_ERP</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SITE_DISPONIBILIDADE</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DISPONÍVEL</t>
@@ -531,170 +531,240 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Produto Variante Id</t>
+          <t>Código produto</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Código loja</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Código categoria</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Categorias</t>
+          <t>Data cadastro</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Exibir SPOT</t>
+          <t>Nome produto</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Exibir Pagina Produto</t>
+          <t>Descrição grande</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Exibir Marketplace</t>
+          <t>Imagem principal</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Exibir Somente Parceiros</t>
+          <t>Imagem 2</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Exibir Buy Box</t>
+          <t>Imagem 3</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Condição</t>
+          <t>Imagem 4</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Preço De</t>
+          <t>Preço venda</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Preço Por</t>
+          <t>Peso</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Preço Custo</t>
+          <t>Frete</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Peso (Gramas)</t>
+          <t>Estoque atual</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Tamanho (cm)</t>
+          <t>Estoque mínimo</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Altura (cm)</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Largura (cm)</t>
+          <t>Inicio promoção</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Tempo Garantia (Dias)</t>
+          <t>Fim promoção</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>Preço promoção</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Selo destaque</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Selo lançamento</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Selo adicional</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade vendida</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Referência</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>COD_COMPARACAO</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Garantia</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Tamanho</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Cor</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Preço de custo</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Preço de custo em dólar</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>DIAS P/ ENTREGA_MARKETPLACE</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Valido (Sim ou Não)</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Disponivel (Sim ou Não)</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo Frete Gratis (Sempre, Neutro, Nunca)</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Localização Estoque</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Marca</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Apresentar Contraproposta</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Autor</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Editora</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Coleção</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Gênero</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Compre Junto</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>1 - Estoque Centro de Distribuição Padrão - Físico</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2 - Estoque CD Teste - Físico</t>
-        </is>
-      </c>
       <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Itens inclusos</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Mensagem adicional</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Comprimento</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Largura</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Data de ativação</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Data de desativação</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>SEO Título</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>SEO descrição simplificada</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>SEO palavra chave</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Características</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Endereço do Produto (URL Tray)</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Imagens adicionais</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Nome categoria</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>DIFERENCA_PRAZO</t>
         </is>
@@ -703,39 +773,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7908258515044</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>7908599346123</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10211</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KIT 2 ADEGAS SEUL C RODIZIO BCO L03</t>
+          <t>COMODA PEROLA/LUA 2PT 4GV BCO PHNX</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lumil Móveis</t>
+          <t>Phoenix Baby</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>67698</v>
+        <v>107776</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Kit 2 Adegas Bar Multiuso Seul com Rodízios L03 Branco - Mpozenato</t>
+          <t>Cômoda Infantil 2 Portas 4 Gavetas Lua P04 Branco - Mpozenato</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>90043</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ENVIO IMEDIATO</t>
-        </is>
-      </c>
+        <v>107776</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
@@ -744,11 +814,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>KIT DE PRODUTOS</t>
+          <t>PRODUTO ACABADO</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -757,146 +827,704 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>9403.40.00</t>
+          <t>9403.50.00</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>45</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>276937</v>
+        <v>660070713</v>
       </c>
       <c r="U2" t="n">
-        <v>67698</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Kit 2 Adegas Bar Multiuso Seul com Rodízios L03 Branco - Mpozenato</t>
-        </is>
+        <v>202227</v>
+      </c>
+      <c r="V2" t="n">
+        <v>371</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>948,1262</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>Cômoda Infantil 2 Portas 4 Gavetas Lua P04 Branco - Mpozenato</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>&lt;ul class="ListaDescricao" style="list-style:none;margin-left:0;padding-left:0;"&gt;&lt;li style="margin-left:0;"&gt;&lt;p&gt;&lt;BODY&gt;Não há sensação melhor do que escolher os móveis que vão compor o quarto dos pequenos não é mesmo? Então, vem conhecer a linda &lt;B&gt;Cômoda Infantil 2 Portas 4 Gavetas Lua P04 Branco&lt;/B&gt;, da Mpozenato! &lt;BR&gt;&lt;BR&gt;A &lt;B&gt;Cômoda Lua&lt;/B&gt; é puro charme! Foi desenvolvida especialmente com design elegante e delicado, combinando facilmente com os outros móveis na decoração do &lt;B&gt;quarto infantil&lt;/B&gt; ou até mesmo no quarto de crianças maiores e adultos. Produzida em 100% MDF com chapa de 15mm e revestimento em pintura Uv acetinada atóxica, garantindo segurança e durabilidade ao móvel. &lt;BR&gt;&lt;BR&gt;Além da beleza, essa &lt;B&gt;Cômoda Para Quarto Infantil&lt;/B&gt; é super funcional, pois conta com 4 gavetas com corrediças telescópicas que deslizam suavemente, 2 portas e 2 prateleiras internas para você guardar as roupinhas, toalhas, lenços e fraldas. Perfeita para compor o quarto de bebê! &lt;BR&gt;&lt;BR&gt;Gostou? Então não perca tempo, adicione ao seu carrinho e leve agora mesmo! &lt;BR&gt;&lt;BR&gt;&lt;BR&gt;&lt;B&gt;ESPECIFICAÇÕES&lt;/B&gt; &lt;BR&gt;&lt;BR&gt;&lt;BR&gt;&lt;B&gt;Dimensões do Produto&lt;/B&gt;&lt;BR&gt;&lt;B&gt;Largura:&lt;/B&gt; 130 cm. &lt;BR&gt;&lt;B&gt;Altura:&lt;/B&gt; 92 cm. &lt;BR&gt;&lt;B&gt;Profundidade:&lt;/B&gt; 52 cm. &lt;BR&gt;&lt;B&gt;Peso:&lt;/B&gt; 62 Kg. &lt;BR&gt;&lt;BR&gt;&lt;B&gt;Características do Produto&lt;/B&gt;&lt;BR&gt;&lt;B&gt;Material da Estrutura:&lt;/B&gt; 100% MDF 15mm. &lt;BR&gt;&lt;B&gt;Peso suportado distribuído:&lt;/B&gt; 60 kg. &lt;BR&gt;&lt;B&gt;Acabamento:&lt;/B&gt; Pintura UV. &lt;BR&gt;&lt;B&gt;Escala de Brilho:&lt;/B&gt; Acetinado. &lt;BR&gt;&lt;B&gt;Quantidade de Portas:&lt;/B&gt; 2 Portas. &lt;BR&gt;&lt;B&gt;Tipo de Dobradiças:&lt;/B&gt; Metálicas. &lt;BR&gt;&lt;B&gt;Tipo de Porta:&lt;/B&gt; Convencional. &lt;BR&gt;&lt;B&gt;Quantidade de Gavetas:&lt;/B&gt; 4 Gavetas. &lt;BR&gt;&lt;B&gt;Tipo de Corrediças:&lt;/B&gt; Telescópicas. &lt;BR&gt;&lt;B&gt;Tipo de Puxador:&lt;/B&gt; Cava. &lt;BR&gt;&lt;B&gt;Possui Prateleiras:&lt;/B&gt; Sim. &lt;BR&gt;&lt;B&gt;Possui Pés:&lt;/B&gt; Não. &lt;BR&gt;&lt;B&gt;Diferenciais:&lt;/B&gt;&lt;BR&gt;- Portas com dobradiças metálicas.&lt;BR&gt;- Gavetas com corrediças telescópicas.&lt;BR&gt;&lt;B&gt;Sistema de Montagem:&lt;/B&gt; Minifix / Cavilhas / Parafusos. &lt;BR&gt;&lt;B&gt;Manual de Montagem:&lt;/B&gt; Sim. &lt;BR&gt;&lt;B&gt;Complexidade da Montagem:&lt;/B&gt; Média. &lt;BR&gt;&lt;B&gt;Volumes:&lt;/B&gt; 2 Volumes. &lt;BR&gt;&lt;B&gt;Conteúdo da embalagem:&lt;/B&gt; 1 Cômoda. &lt;BR&gt;&lt;B&gt;Garantia do Fabricante:&lt;/B&gt; 90 dias contra defeito de fabricação. &lt;BR&gt;&lt;B&gt;Montagem:&lt;/B&gt;&amp;nbsp; Recomendamos que seja feita por um profissional. &lt;BR&gt;&lt;B&gt;Recomendação de Limpeza:&lt;/B&gt;&amp;nbsp; Pano levemente úmido e detergente neutro. &lt;BR&gt;&lt;BR&gt;&lt;B&gt;Observações importantes&lt;/B&gt;&lt;BR&gt;- Produto para uso residencial em ambiente interno, não devendo ficar exposto diretamente ao sol, calor e umidades excessivas.&lt;BR&gt;- Pode haver alguma diferença de tonalidade entre a imagem e o produto real, por conta do tratamento de imagens e a calibração de cores do seu monitor.&lt;BR&gt;- As imagens são meramente ilustrativas, não acompanham objetos de decoração e eletrônicos.&lt;BR&gt;- Ao receber a mercadoria, o cliente deve verificar as condições da embalagem, caso haja alguma avaria não assine o comprovante de recebimento.&lt;BR&gt;- Montagem, desmontagem e outras instalações serão de responsabilidade do cliente. Não nos responsabilizamos, no ato da entrega, por subir escadas/elevadores ou pelo transporte por guincho em apartamentos. Eventuais despesas são de responsabilidade do comprador.&lt;BR&gt;- Confira as dimensões do produto e certifique-se de que passará normalmente por supostos elevadores, portas, escadas e/ou corredores de sua residência.&lt;BR&gt;&lt;/BODY&gt;&lt;br /&gt;&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_2_portas_4_gavetas_lua_p04_branco_mpozenato_660070713_1_ffcb0ba8786b85a70bdd02d2961038c4.jpg</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_2_portas_4_gavetas_lua_p04_branco_mpozenato_660070713_2_4581f6d5c365a29e7dc91f23a7e3838c.jpg</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>NÃO</t>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_2_portas_4_gavetas_lua_p04_branco_mpozenato_660070713_3_335290ca43a55713329ff140622ba0e9.jpg</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Novo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>574,48</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>430,90</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>187,74</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>34000</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_2_portas_4_gavetas_lua_p04_branco_mpozenato_660070713_4_cdb5ca0dac987b6fec5966cffab05626.jpg</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>1517.82</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>63000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>7908258515044</t>
-        </is>
-      </c>
-      <c r="AM2" t="n">
-        <v>7</v>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>05/10/2053</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>910.9</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>Neutro</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Mpozenato</t>
+        </is>
+      </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1236 - Mpozenato</t>
+          <t>Lua</t>
         </is>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
+        <v>107776</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>7908599346123</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>90 dias após o recebimento do produto</t>
+        </is>
+      </c>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AX2" t="n">
+        <v>505.94</v>
+      </c>
       <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>3</v>
       </c>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="n">
-        <v>4</v>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>1 Cômoda</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>35</v>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>https://www.pozelar.com.br/comoda-infantil-2-portas-4-gavetas-lua-p04-branco-mpozenato</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_2_portas_4_gavetas_lua_p04_branco_mpozenato_660070713_5_8985a7ec17e07ac2d0a36649ff6eba4d.jpg, https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_2_portas_4_gavetas_lua_p04_branco_mpozenato_660070713_6_dcbe7bbe053e3d01d0d785722efc9cda.jpg</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Complemento Quarto Infantil</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7898268707549</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>103723/1097</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CAB GRETA 90 SD LISO 1097 VERMELHO DM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CASA DO PUFF</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60192</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cabeceira Solteiro Greta 90 cm Suede Liso Vermelho - D'Monegatto</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>60192</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>OUTLET</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#23663 INATIVAR QDO ZERAR ESTOQUE </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>PRODUTO ACABADO</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Falso</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>9403.50.00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>60192</v>
+      </c>
+      <c r="T3" t="n">
+        <v>9652</v>
+      </c>
+      <c r="U3" t="n">
+        <v>202227</v>
+      </c>
+      <c r="V3" t="n">
+        <v>701</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>12/12/2017</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Cabeceira Solteiro Greta 90 cm Suede Liso Vermelho - D'Monegatto</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Vamos combinar que é muito prazeroso, após um dia cansativo na escola ou no trabalho, chegar em casa e ter uma bela noite sono. Melhor ainda se o quarto transmitir tranquilidade e bem-estar. E você sabia que a cabeceira é uma parte essencial para se conseguir um ambiente assim?Isso mesmo! A cabeceira é mais que um acessório, ela é também uma peça decorativa que permite criar um quarto inovador e aconchegante. E agora, com a Cabeceira Solteiro Greta 90cm, da DMonegatto, você vai conseguir.&lt;br /&gt;&lt;br /&gt;Fabricada em madeira tratada e preenchimento com espuma de alta qualidade, essa peça também é sinônimo de durabilidade e resistência, ao passo que o revestimento feito em Suede Liso proporciona aconchego e maciez. Ah, o design em capitonê é o destaque desse produto, pois cria linhas horizontais que deixam a peça mais moderna e minimalista, sem contar que estão sempre em alta. Já o tom marcante do Vermelho agrega personalidade e estilo ao cômodo. Resumindo: uma peça curinga para criar um quarto lindo, agradável e cheio de charme.&lt;br /&gt;&lt;br /&gt;Gostou? Então, aproveite e adicione agora mesmo ao seu carrinho!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Dimensões do Produto &lt;/b&gt;&lt;br /&gt;&lt;b&gt;Largura:&lt;/b&gt; 90 cm.&lt;br /&gt;&lt;b&gt;Altura:&lt;/b&gt; 125 cm.&lt;br /&gt;&lt;b&gt;Profundidade:&lt;/b&gt; 10 cm.&lt;br /&gt;&lt;b&gt;Peso:&lt;/b&gt; 12 Kg.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Outras Medidas:&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Altura para Box:&lt;/b&gt; Ajustável de acordo com a altura do Box.&lt;br /&gt;&lt;b&gt;Ideal para Colchão de 88 cm.&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Características do Produto&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Material da Estrutura:&lt;/b&gt; Madeira industrial tratada.&lt;br /&gt;&lt;b&gt;Material e Densidade da Espuma:&lt;/b&gt; Poliuretano/D-20.&lt;br /&gt;&lt;b&gt;Revestimento:&lt;/b&gt; Suede Liso.&lt;br /&gt;&lt;b&gt;Possui Pés:&lt;/b&gt; Não.&lt;br /&gt;&lt;b&gt;Possui Frame:&lt;/b&gt; Sim.&lt;br /&gt;&lt;b&gt;Diferenciais:&lt;/b&gt;&lt;br /&gt;- Espuma de alta qualidade.&lt;br /&gt;- Design moderno.&lt;br /&gt;- Costura resistente.&lt;br /&gt;- Tecido 100% Poliéster.&lt;br /&gt;&lt;b&gt;Sistema de Montagem:&lt;/b&gt; O produto é enviado montado, sendo necessário apenas a fixação do frame.&lt;br /&gt;&lt;b&gt;Manual de Montagem:&lt;/b&gt; Não.&lt;br /&gt;&lt;b&gt;Complexidade da Montagem:&lt;/b&gt; Baixa.&lt;br /&gt;&lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; 1 Cabeceira.&lt;br /&gt;&lt;b&gt;Volumes:&lt;/b&gt; 1 Volume.&lt;br /&gt;&lt;b&gt;Garantia do Fabricante:&lt;/b&gt; 3 meses contra defeito de fabricação.&lt;br /&gt;&lt;b&gt;Montagem:&lt;/b&gt; Recomendamos que seja feita por um profissional.&lt;br /&gt;&lt;b&gt;Recomendação de Limpeza:&lt;/b&gt; Utilize pano levemente úmido.&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Informação Relevante:&lt;/b&gt;&lt;br /&gt;- Pode haver ligeira variação entre a cor do produto real e a imagem anunciada devido ao lote de tecidos.&lt;br /&gt;- Por se tratar de estofado, as medidas podem ter uma pequena variação em até 3 cm.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Observações importantes&lt;/b&gt;&lt;br /&gt;- Produto para uso residencial em ambiente interno, não devendo ficar exposto diretamente ao sol, calor e umidades excessivas.&lt;br /&gt;- Pode haver alguma diferença de tonalidade entre a imagem e o produto real, por conta do tratamento de imagens e a calibração de cores do seu monitor.&lt;br /&gt;- As imagens são meramente ilustrativas, não acompanham objetos de decoração e eletrônicos.&lt;br /&gt;- Ao receber a mercadoria, o cliente deve verificar as condições da embalagem, caso haja alguma avaria não assine o comprovante de recebimento.&lt;br /&gt;- Montagem, desmontagem e outras instalações serão de responsabilidade do cliente. Não nos responsabilizamos, no ato da entrega, por subir escadas/elevadores ou pelo transporte por guincho em apartamentos. Eventuais despesas são de responsabilidade do comprador.&lt;br /&gt;- Confira as dimensões do produto e certifique-se de que passará normalmente por supostos elevadores, portas, escadas e/ou corredores de sua residência.&lt;/p&gt;&lt;ul class="ListaDescricao" style="list-style:none;margin-left:0;padding-left:0;"&gt;	&lt;li style="margin-left:0;"&gt;	&lt;p&gt; &lt;/p&gt;	&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/cabeceira_solteiro_90_cm_greta_dmonegatto_9652_1_20210331154826.jpg</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/cabeceira_solteiro_90_cm_greta_dmonegatto_9652_2_20210331154826.jpg</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/cabeceira_solteiro_90_cm_greta_dmonegatto_9652_3_20210331154832.jpg</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/cabeceira_solteiro_90_cm_greta_dmonegatto_9652_4_20210331154832.jpg</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>567</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>17/04/2024</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>17/04/2042</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AP3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Mpozenato</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Greta</t>
+        </is>
+      </c>
+      <c r="AS3" t="n">
+        <v>60192</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>7898268707549</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>90 dias após o recebimento do produto</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>1 Cabeceira</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>92</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>127</v>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cabeceira Solteiro Greta 90 cm - D´Monegatto é o produto ideal para incrementar estilo e modernidade no ambiente. Possui design com linhas simples que garante muito mais charme na decoração. A Cabeceira Greta é produzida com madeira tratada e espuma </t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>Marca: Mpozenato, Cor: Suede Liso Vermelho, Material: Madeira de Eucalipto, Altura: 125 cm, Largura: 90 cm, Profundidade: 10 cm, Peso: 12 kg, Tipo de Garantia: Fabricante, SupplierSimpleName: Cabeceira Solteiro Greta 90 cm Suede Liso Vermelho - D'Monegatto, Model: Greta, Color: Suede Liso Vermelho, ColorFamily: Suede Liso Vermelho, ColorSimple: Suede Liso Vermelho, ColorSupplier: Suede Liso Vermelho, MaterialFamily: Madeira de Eucalipto, ProductHeight: 125, ProductWidth: 90, ProductLength: 10, ProductWeight: 12, SizeDescription: 125 x 90 x 10 cm, ProductWarranty: 90 dias após o recebimento do produto, ProductInstructions: Produto para uso em ambiente interno, nao devendo ficar exposto ao sol, calor e umidade excessivos., ProductContents: Cabeceira, AssemblyRequired: Sim, sugerimos a contratação do nosso serviço de montagem (para os CEPs em que o serviço está dispon, OriginCountry: Nacional, OriginState: PR</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>https://www.pozelar.com.br/cabeceira-solteiro-90-cm-greta-d-monegatto</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Cabeceira Solteiro</t>
+        </is>
+      </c>
+      <c r="BO3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7898518227940</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16449.157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LIV OFFICE 188CM 5 PR PTO - LEÃO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Móveis Leão</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62830</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Estante Livreiro 5 Prateleiras Office Preto Trama - Móveis Leão</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>62830</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>OUTLET</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>REATIVADO 09-05-2024</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PRODUTO ACABADO</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Falso</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>9403.60.00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>8290</v>
+      </c>
+      <c r="U4" t="n">
+        <v>202227</v>
+      </c>
+      <c r="V4" t="n">
+        <v>309</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>27/07/2017</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Estante Livreiro 5 Prateleiras Office Preto Trama - Móveis Leão</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A &lt;b&gt;Estante Livreiro 5 Prateleiras Office Preto Trama da Móveis Leão&lt;/b&gt; é uma ótima opção quem busca um móvel moderno e funcional para organizar livros e objetos decorativos.&lt;br /&gt;&lt;br /&gt;O design com 5 prateleiras espaçosas oferece amplo espaço para exibir sua coleção favorita. A pintura UV velluto confere um acabamento elegante e duradouro, garantindo que a estante permaneça bonita por muito mais tempo. Além disso, sua tonalidade neutra se encaixa perfeitamente em qualquer ambiente, seja no &lt;b&gt;escritório&lt;/b&gt;, &lt;b&gt;home office&lt;/b&gt; ou na &lt;b&gt;sala de estar&lt;/b&gt;. Em outras palavras, a Estante Office é a combinação ideal entre estilo, organização e praticidade. Não perca a oportunidade de adquirir esse móvel versátil que vai transformar o seu ambiente.&lt;br /&gt;&lt;br /&gt;Adicione agora mesmo ao seu carrinho!&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Dimensões dos Produtos&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Largura: &lt;/b&gt;60,5 cm.&lt;br /&gt;&lt;b&gt;Altura: &lt;/b&gt;188 cm.&lt;br /&gt;&lt;b&gt;Profundidade: &lt;/b&gt;34 cm.&lt;br /&gt;&lt;b&gt;Peso: &lt;/b&gt;26,5 kg.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Características do Produto&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Material da estrutura: &lt;/b&gt;MDP&lt;br /&gt;&lt;b&gt;Acabamento: &lt;/b&gt;Pintura UV Velluto.&lt;br /&gt;&lt;b&gt;Escala de Brilho: &lt;/b&gt;Semi-fosco.&lt;br /&gt;&lt;b&gt;Peso Suportado: &lt;/b&gt;20 kg distribuídos.&lt;br /&gt;&lt;b&gt;Possui Portas: &lt;/b&gt;Não.&lt;br /&gt;&lt;b&gt;Quantidade de Prateleiras: &lt;/b&gt;5 Prateleiras.&lt;br /&gt;&lt;b&gt;Possui Pés: &lt;/b&gt;Sim.&lt;br /&gt;&lt;b&gt;Material dos Pés: &lt;/b&gt;PVC.&lt;br /&gt;&lt;b&gt;Diferenciais: &lt;/b&gt;&lt;br /&gt;- Design Moderno.&lt;br /&gt;&lt;b&gt;Sistema de Montagem: &lt;/b&gt;Parafusos/Cavilhas/Minifix.&lt;br /&gt;&lt;b&gt;Manual de Montagem: &lt;/b&gt;Sim.&lt;br /&gt;&lt;b&gt;Complexidade da Montagem: &lt;/b&gt;Baixa.&lt;br /&gt;&lt;b&gt;Volumes: &lt;/b&gt;1 Volume.&lt;br /&gt;&lt;b&gt;Conteúdo da Embalagem: &lt;/b&gt;1 Estante Livreiro.&lt;br /&gt;&lt;b&gt;Garantia do Fabricante: &lt;/b&gt;90 dias contra defeito de fabricação.&lt;br /&gt;&lt;b&gt;Montagem: &lt;/b&gt;Recomendamos que seja feita por um profissional.&lt;br /&gt;&lt;b&gt;Recomendação de Limpeza: &lt;/b&gt;Utilize pano levemente úmido.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Observações importantes&lt;/b&gt;&lt;br /&gt;- Produto para uso residencial em ambiente interno, não devendo ficar exposto diretamente ao sol, calor e umidades excessivas.&lt;br /&gt;- Pode haver alguma diferença de tonalidade entre a imagem e o produto real, por conta do tratamento de imagens e a calibração de cores do seu monitor.&lt;br /&gt;- As imagens são meramente ilustrativas, não acompanham objetos de decoração e eletrônicos.&lt;br /&gt;- Confira o estado da embalagem, não devendo assinar o comprovante em caso de danos.&lt;br /&gt;- Não asseguramos, no ato da entrega, por subir escadas/elevadores, pelo transporte por guincho em apartamentos ou montagem, desmontagem e instalações. Eventuais despesas são por conta do comprador.&lt;br /&gt;- Confira as dimensões do produto e certifique-se de que passará normalmente por supostos elevadores, portas, escadas e/ou corredores de sua residência.&lt;/p&gt;&lt;ul class="ListaDescricao" style="list-style:none;margin-left:0;padding-left:0;"&gt;	&lt;li style="margin-left:0;"&gt;	&lt;p&gt; &lt;/p&gt;	&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/estante_livreiro_6_prateleiras_office_moveis_leao_8290_1_318317ce0930ce69c120477536a1fbee_20210331145449.jpg</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/estante_livreiro_6_prateleiras_office_moveis_leao_8290_2_e932cff28ecaccadc841ffb286c53113_20210331145455.jpg</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/estante_livreiro_6_prateleiras_office_moveis_leao_8290_3_6117f4f59da5341649ffa2f7b50bd7bf_20210331145455.jpg</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>433.44</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1005</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>30/10/2023</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>30/10/2035</t>
+        </is>
+      </c>
+      <c r="AL4" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Móveis Leão</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>7898518227940</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>90 dias após o recebimento do produto</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>157.62</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="n">
+        <v>188</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>35</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Estante para Livros em 10x Sem Juros | Pozelar</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Confira os diversos modelos de estantes para livros disponíveis na Pozelar e aproveite o parcelamento em até 10x sem juros. Armazene seus livros com estilo!</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>estante de livros, estante, estante para livros, estante sala, estante industrial, estante livros livreiro, estante livreiro, estante escritorio livreiro, estante</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>https://www.pozelar.com.br/livreiro-6-prateleiras-office-moveis-leao</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>Estante e Livreiro</t>
+        </is>
+      </c>
+      <c r="BO4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/COMPARACAO_PRAZOS/Comparacao_Prazos.xlsx
+++ b/COMPARACAO_PRAZOS/Comparacao_Prazos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA1"/>
+  <dimension ref="A1:BO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,14 +511,14 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>DIAS P/ ENTREGA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>DIAS P/ ENTREGA_ERP</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SITE_DISPONIBILIDADE</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DISPONÍVEL</t>
@@ -531,173 +531,999 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Produto Variante Id</t>
+          <t>Código produto</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Código loja</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Código categoria</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Categorias</t>
+          <t>Data cadastro</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Exibir SPOT</t>
+          <t>Nome produto</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Exibir Pagina Produto</t>
+          <t>Descrição grande</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Exibir Marketplace</t>
+          <t>Imagem principal</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Exibir Somente Parceiros</t>
+          <t>Imagem 2</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Exibir Buy Box</t>
+          <t>Imagem 3</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Condição</t>
+          <t>Imagem 4</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Preço De</t>
+          <t>Preço venda</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Preço Por</t>
+          <t>Peso</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Preço Custo</t>
+          <t>Frete</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Peso (Gramas)</t>
+          <t>Estoque atual</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Tamanho (cm)</t>
+          <t>Estoque mínimo</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Altura (cm)</t>
+          <t>Disponível</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Largura (cm)</t>
+          <t>Inicio promoção</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Tempo Garantia (Dias)</t>
+          <t>Fim promoção</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>Preço promoção</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Selo destaque</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Selo lançamento</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Selo adicional</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade vendida</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Referência</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>COD_COMPARACAO</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Garantia</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Tamanho</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Cor</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Preço de custo</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Preço de custo em dólar</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>DIAS P/ ENTREGA_MARKETPLACE</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Valido (Sim ou Não)</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Disponivel (Sim ou Não)</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo Frete Gratis (Sempre, Neutro, Nunca)</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Localização Estoque</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Marca</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Apresentar Contraproposta</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Autor</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Editora</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Coleção</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Gênero</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Compre Junto</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>1 - Estoque Centro de Distribuição Padrão - Físico</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2 - Estoque CD Teste - Físico</t>
-        </is>
-      </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
+          <t>Itens inclusos</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Mensagem adicional</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Comprimento</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Largura</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Data de ativação</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Data de desativação</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>SEO Título</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>SEO descrição simplificada</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>SEO palavra chave</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Características</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Endereço do Produto (URL Tray)</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Imagens adicionais</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Nome categoria</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
           <t>DIFERENCA_PRAZO</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7899741115318</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>COMODA NEW LOREN C/CANT BRANCO PNX</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Phoenix Baby</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>193565</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cômoda Infantil com Cantoneira e 4 Gavetas 100% MDF New Lorena Branco - Phoenix
+Código Fabricante 13141 - Branco</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>193565</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#32027 PRAZO 15D</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>KIT DE PRODUTOS</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Falso</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>9403.50.00</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>660086967</v>
+      </c>
+      <c r="U2" t="n">
+        <v>202227</v>
+      </c>
+      <c r="V2" t="n">
+        <v>359</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Cômoda Infantil com Cantoneira e 4 Gavetas 100% MDF New Lorena Branco - Phoenix</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>&lt;ul class="ListaDescricao" style="list-style:none;margin-left:0;padding-left:0;"&gt;&lt;li style="margin-left:0;"&gt;&lt;p&gt;A &lt;B&gt;Cômoda Infantil com Cantoneira e 4 Gavetas 100% MDF New Lorena Branco&lt;/B&gt;, da Phoenix Baby é a escolha ideal para quem busca funcionalidade e estilo no &lt;B&gt;Quarto Do Bebê&lt;/B&gt;. &lt;BR&gt;&lt;BR&gt;Com sua estrutura 100% MDF e acabamento em pintura atóxica UV de alto brilho, a &lt;B&gt;Cômoda Infantil&lt;/B&gt; não só garante um visual encantador, mas também promete durabilidade e segurança. As gavetas com corrediças telescópicas oferecem um manuseio suave e silencioso, perfeito para não atrapalhar o sono do bebê, enquanto a cantoneira adiciona um toque de elegância e aproveitamento de espaço com nichos, de forma segura sem quinas já pensando no seu bebê. A &lt;B&gt;Cômoda com Porta&lt;/B&gt; acompanha 1 cabideiro em alumínio e 1 prateleira interna, de uso opcional, é um bônus para organizar as roupinhas com facilidade. Se queria deixar o quarto mais moderno e funcional acabou de encontrar o móvel certo!&lt;BR&gt;&lt;BR&gt;Adicione em seu carrinho de comprar e garanta a sua! &lt;BR&gt;&lt;BR&gt;&lt;BR&gt;&lt;B&gt;ESPECIFICAÇÕES&lt;/B&gt; &lt;BR&gt;&lt;BR&gt;&lt;BR&gt;&lt;B&gt;Dimensões do Produto&lt;/B&gt;&lt;BR&gt;&lt;B&gt;Largura:&lt;/B&gt; 135 cm.&lt;BR&gt;&lt;B&gt;Altura:&lt;/B&gt; 89 cm.&lt;BR&gt;&lt;B&gt;Profundidade:&lt;/B&gt; 45 cm.&lt;BR&gt;&lt;B&gt;Peso:&lt;/B&gt; 48 Kg.&lt;BR&gt;&lt;BR&gt;&lt;B&gt;Outras Medidas&lt;/B&gt; &lt;BR&gt;&lt;B&gt;Porta (Largura x Altura):&lt;/B&gt; 28 x 81 cm.&lt;BR&gt;&lt;B&gt;Gavetas (Largura x Altura):&lt;/B&gt; 71,5 x 19 cm.&lt;BR&gt;&lt;BR&gt;&lt;B&gt;Características do Produto&lt;/B&gt;&lt;BR&gt;&lt;B&gt;Material da Estrutura:&lt;/B&gt; 100% MDF.&lt;BR&gt;&lt;B&gt;Peso Suportado:&lt;/B&gt; 50 kg distribuídos.&lt;BR&gt;&lt;B&gt;Acabamento:&lt;/B&gt; Pintura Atóxica UV.&lt;BR&gt;&lt;B&gt;Escala de Brilho:&lt;/B&gt; Alto Brilho.&lt;BR&gt;&lt;B&gt;Quantidade de Portas:&lt;/B&gt; 1 Porta.&lt;BR&gt;&lt;B&gt;Tipo de Dobradiças:&lt;/B&gt; Metálicas.&lt;BR&gt;&lt;B&gt;Possui Cabideiro:&lt;/B&gt; Sim, uso opcional.&lt;BR&gt;&lt;B&gt;Material do Cabideiro:&lt;/B&gt; Alumínio.&lt;BR&gt;&lt;B&gt;Quantidade de Gavetas:&lt;/B&gt; 4 Gavetas.&lt;BR&gt;&lt;B&gt;Tipo de Corrediças:&lt;/B&gt; Telescópicas.&lt;BR&gt;&lt;B&gt;Tipo de Puxador:&lt;/B&gt; PVC Dourado.&lt;BR&gt;&lt;B&gt;Possui Prateleiras:&lt;/B&gt; Sim.&lt;BR&gt;&lt;B&gt;Quantidade de Prateleiras:&lt;/B&gt; 3 Prateleiras.&lt;BR&gt;&lt;B&gt;Possui Nichos:&lt;/B&gt; Sim.&lt;BR&gt;&lt;B&gt;Quantidade de Nichos:&lt;/B&gt; 3 Nichos.&lt;BR&gt;&lt;B&gt;Possui Pés:&lt;/B&gt; Sim.&lt;BR&gt;&lt;B&gt;Tipo de Pés:&lt;/B&gt; PVC.&lt;BR&gt;&lt;B&gt;Diferenciais:&lt;/B&gt; &lt;BR&gt;- Design moderno.&lt;BR&gt;- Amplo espaço interno.&lt;BR&gt;- Cantoneira com nichos.&lt;BR&gt;- Prateleira interna e cabideiro de uso opcional.&lt;BR&gt;&lt;B&gt;Sistema de Montagem:&lt;/B&gt; Minifix / Cavilhas / Parafusos.&lt;BR&gt;&lt;B&gt;Manual de Montagem:&lt;/B&gt; Sim.&lt;BR&gt;&lt;B&gt;Complexidade da Montagem:&lt;/B&gt; Média.&lt;BR&gt;&lt;B&gt;Volumes:&lt;/B&gt; 1 Volume.&lt;BR&gt;&lt;B&gt;Garantia do Fabricante&lt;/B&gt;: 90 dias contra defeito de fabricação.&lt;BR&gt;&lt;B&gt;Montagem:&lt;/B&gt; Recomendamos que seja feita por um profissional.&lt;BR&gt;&lt;B&gt;Recomendação de Limpeza:&lt;/B&gt; Pano levemente úmido e detergente neutro.&lt;BR&gt;&lt;BR&gt;&lt;B&gt;Observações importantes&lt;/B&gt; &lt;BR&gt;- Produto para uso residencial em ambiente interno, não devendo ficar exposto diretamente ao sol, calor e umidades excessivas.&lt;BR&gt;- Pode haver alguma diferença de tonalidade entre a imagem e o produto real, por conta do tratamento de imagens e a calibração de cores do seu monitor.&lt;BR&gt;- As imagens são meramente ilustrativas, não acompanham objetos de decoração e eletrônicos.&lt;BR&gt;- Ao receber a mercadoria, o cliente deve verificar as condições da embalagem, caso haja alguma avaria não assine o comprovante de recebimento.&lt;BR&gt;- Montagem, desmontagem e outras instalações serão de responsabilidade do cliente. Não nos responsabilizamos, no ato da entrega, por subir escadas/elevadores ou pelo transporte por guincho em apartamentos. Eventuais despesas são de responsabilidade do comprador.&lt;BR&gt;- Confira as dimensões do produto e certifique-se de que passará normalmente por supostos elevadores, portas, escadas e/ou corredores de sua residência.&lt;br /&gt;&lt;/p&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_1_8b7561e55f68ede1a42d900b23854bb9.jpg</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_2_d41851a79a8b67f3d564ba8f55d602b8.jpg</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_3_06d1cb70264648eb8a6523378e491873.jpg</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_4_3e701b4d4056da1098620dc9d154dd3a.jpg</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>1050.31</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>49000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>05/10/2053</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>629.9</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AP2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Phoenix Baby</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="n">
+        <v>193565</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>7899741115318</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>90 dias após o recebimento do produto</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="n">
+        <v>343.24</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="n">
+        <v>45</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>138</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>14/03/2025</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>Cor: Branco, Material: MDF, Altura: 89 cm, Largura: 45 cm, Profundidade: 45 cm, Peso: 48 kg, Gênero: Unissex, Manual: Sim, Origem: Nacional, Requere montagem: Sim, SupplierSimpleName: Cômoda Infantil com Cantoneira e 4 Gavetas 100% MDF New Lorena Branco - Phoenix, Model: New Lorena, Color: Branco, ColorFamily: Branco, ColorSimple: Branco, ColorSupplier: Branco, MaterialFamily: MDF, ProductHeight: 89, ProductWidth: 45, ProductLength: 45, ProductWeight: 52, SizeDescription: 89 x 45 x 45 cm, ProductWarranty: 90 dias após o recebimento do produto, ProductInstructions: Produto para uso em ambiente interno, nao devendo ficar exposto ao sol, calor e umidade excessivos., ProductContents: 1 Cômoda, AssemblyRequired: Sim, sugerimos a contratação do nosso serviço de montagem (para os CEPs em que o serviço está dispon, OriginCountry: Nacional, OriginState: PR</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>https://www.pozelar.com.br/comoda-infantil-com-cantoneira-e-4-gavetas-100-mdf-new-lorena-branco-phoenix</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_5_08fb34765f293f8804473f4ef3a09092.jpg, https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_6_418d838d9ca9059a1ba5a8e8b2da0544.jpg, https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_7_52ecf98003a741f5a897297e31f68c44.jpg, https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_8_5cae0a4fbbbf18c2e9d6bf92eea9c6f4.jpg, https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_9_7add39f0dbf3b5339f447ab9dbaaf216.jpg, https://images.tcdn.com.br/img/img_prod/202227/comoda_infantil_com_cantoneira_e_4_gavetas_100_mdf_new_lorena_branco_phoenix_660086967_10_b66c8bd1a9a99675cfb0411c832b24b8.jpg</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Comoda Infantil</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7898268707549</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>103723/1097</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CAB GRETA 90 SD LISO 1097 VERMELHO DM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CASA DO PUFF</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60192</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cabeceira Solteiro Greta 90 cm Suede Liso Vermelho - D'Monegatto</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>60192</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>OUTLET</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#23663 INATIVAR QDO ZERAR ESTOQUE </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>PRODUTO ACABADO</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Falso</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>9403.50.00</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>9652</v>
+      </c>
+      <c r="U3" t="n">
+        <v>202227</v>
+      </c>
+      <c r="V3" t="n">
+        <v>701</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>12/12/2017</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Cabeceira Solteiro Greta 90 cm Suede Liso Vermelho - D'Monegatto</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Vamos combinar que é muito prazeroso, após um dia cansativo na escola ou no trabalho, chegar em casa e ter uma bela noite sono. Melhor ainda se o quarto transmitir tranquilidade e bem-estar. E você sabia que a cabeceira é uma parte essencial para se conseguir um ambiente assim?Isso mesmo! A cabeceira é mais que um acessório, ela é também uma peça decorativa que permite criar um quarto inovador e aconchegante. E agora, com a Cabeceira Solteiro Greta 90cm, da DMonegatto, você vai conseguir.&lt;br /&gt;&lt;br /&gt;Fabricada em madeira tratada e preenchimento com espuma de alta qualidade, essa peça também é sinônimo de durabilidade e resistência, ao passo que o revestimento feito em Suede Liso proporciona aconchego e maciez. Ah, o design em capitonê é o destaque desse produto, pois cria linhas horizontais que deixam a peça mais moderna e minimalista, sem contar que estão sempre em alta. Já o tom marcante do Vermelho agrega personalidade e estilo ao cômodo. Resumindo: uma peça curinga para criar um quarto lindo, agradável e cheio de charme.&lt;br /&gt;&lt;br /&gt;Gostou? Então, aproveite e adicione agora mesmo ao seu carrinho!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Dimensões do Produto &lt;/b&gt;&lt;br /&gt;&lt;b&gt;Largura:&lt;/b&gt; 90 cm.&lt;br /&gt;&lt;b&gt;Altura:&lt;/b&gt; 125 cm.&lt;br /&gt;&lt;b&gt;Profundidade:&lt;/b&gt; 10 cm.&lt;br /&gt;&lt;b&gt;Peso:&lt;/b&gt; 12 Kg.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Outras Medidas:&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Altura para Box:&lt;/b&gt; Ajustável de acordo com a altura do Box.&lt;br /&gt;&lt;b&gt;Ideal para Colchão de 88 cm.&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Características do Produto&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Material da Estrutura:&lt;/b&gt; Madeira industrial tratada.&lt;br /&gt;&lt;b&gt;Material e Densidade da Espuma:&lt;/b&gt; Poliuretano/D-20.&lt;br /&gt;&lt;b&gt;Revestimento:&lt;/b&gt; Suede Liso.&lt;br /&gt;&lt;b&gt;Possui Pés:&lt;/b&gt; Não.&lt;br /&gt;&lt;b&gt;Possui Frame:&lt;/b&gt; Sim.&lt;br /&gt;&lt;b&gt;Diferenciais:&lt;/b&gt;&lt;br /&gt;- Espuma de alta qualidade.&lt;br /&gt;- Design moderno.&lt;br /&gt;- Costura resistente.&lt;br /&gt;- Tecido 100% Poliéster.&lt;br /&gt;&lt;b&gt;Sistema de Montagem:&lt;/b&gt; O produto é enviado montado, sendo necessário apenas a fixação do frame.&lt;br /&gt;&lt;b&gt;Manual de Montagem:&lt;/b&gt; Não.&lt;br /&gt;&lt;b&gt;Complexidade da Montagem:&lt;/b&gt; Baixa.&lt;br /&gt;&lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; 1 Cabeceira.&lt;br /&gt;&lt;b&gt;Volumes:&lt;/b&gt; 1 Volume.&lt;br /&gt;&lt;b&gt;Garantia do Fabricante:&lt;/b&gt; 3 meses contra defeito de fabricação.&lt;br /&gt;&lt;b&gt;Montagem:&lt;/b&gt; Recomendamos que seja feita por um profissional.&lt;br /&gt;&lt;b&gt;Recomendação de Limpeza:&lt;/b&gt; Utilize pano levemente úmido.&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Informação Relevante:&lt;/b&gt;&lt;br /&gt;- Pode haver ligeira variação entre a cor do produto real e a imagem anunciada devido ao lote de tecidos.&lt;br /&gt;- Por se tratar de estofado, as medidas podem ter uma pequena variação em até 3 cm.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Observações importantes&lt;/b&gt;&lt;br /&gt;- Produto para uso residencial em ambiente interno, não devendo ficar exposto diretamente ao sol, calor e umidades excessivas.&lt;br /&gt;- Pode haver alguma diferença de tonalidade entre a imagem e o produto real, por conta do tratamento de imagens e a calibração de cores do seu monitor.&lt;br /&gt;- As imagens são meramente ilustrativas, não acompanham objetos de decoração e eletrônicos.&lt;br /&gt;- Ao receber a mercadoria, o cliente deve verificar as condições da embalagem, caso haja alguma avaria não assine o comprovante de recebimento.&lt;br /&gt;- Montagem, desmontagem e outras instalações serão de responsabilidade do cliente. Não nos responsabilizamos, no ato da entrega, por subir escadas/elevadores ou pelo transporte por guincho em apartamentos. Eventuais despesas são de responsabilidade do comprador.&lt;br /&gt;- Confira as dimensões do produto e certifique-se de que passará normalmente por supostos elevadores, portas, escadas e/ou corredores de sua residência.&lt;/p&gt;&lt;ul class="ListaDescricao" style="list-style:none;margin-left:0;padding-left:0;"&gt;	&lt;li style="margin-left:0;"&gt;	&lt;p&gt; &lt;/p&gt;	&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/cabeceira_solteiro_90_cm_greta_dmonegatto_9652_1_20210331154826.jpg</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/cabeceira_solteiro_90_cm_greta_dmonegatto_9652_2_20210331154826.jpg</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/cabeceira_solteiro_90_cm_greta_dmonegatto_9652_3_20210331154832.jpg</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/cabeceira_solteiro_90_cm_greta_dmonegatto_9652_4_20210331154832.jpg</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>567</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2002</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>17/04/2024</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>17/04/2042</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AP3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Mpozenato</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Greta</t>
+        </is>
+      </c>
+      <c r="AS3" t="n">
+        <v>60192</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>7898268707549</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>90 dias após o recebimento do produto</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="n">
+        <v>189</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>1 Cabeceira</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>92</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>127</v>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cabeceira Solteiro Greta 90 cm - D´Monegatto é o produto ideal para incrementar estilo e modernidade no ambiente. Possui design com linhas simples que garante muito mais charme na decoração. A Cabeceira Greta é produzida com madeira tratada e espuma </t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>Marca: Mpozenato, Cor: Suede Liso Vermelho, Material: Madeira de Eucalipto, Altura: 125 cm, Largura: 90 cm, Profundidade: 10 cm, Peso: 12 kg, Tipo de Garantia: Fabricante, SupplierSimpleName: Cabeceira Solteiro Greta 90 cm Suede Liso Vermelho - D'Monegatto, Model: Greta, Color: Suede Liso Vermelho, ColorFamily: Suede Liso Vermelho, ColorSimple: Suede Liso Vermelho, ColorSupplier: Suede Liso Vermelho, MaterialFamily: Madeira de Eucalipto, ProductHeight: 125, ProductWidth: 90, ProductLength: 10, ProductWeight: 12, SizeDescription: 125 x 90 x 10 cm, ProductWarranty: 90 dias após o recebimento do produto, ProductInstructions: Produto para uso em ambiente interno, nao devendo ficar exposto ao sol, calor e umidade excessivos., ProductContents: Cabeceira, AssemblyRequired: Sim, sugerimos a contratação do nosso serviço de montagem (para os CEPs em que o serviço está dispon, OriginCountry: Nacional, OriginState: PR</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>https://www.pozelar.com.br/cabeceira-solteiro-90-cm-greta-d-monegatto</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Cabeceira Solteiro</t>
+        </is>
+      </c>
+      <c r="BO3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7898518227940</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16449.157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LIV OFFICE 188CM 5 PR PTO - LEÃO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Móveis Leão</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62830</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Estante Livreiro 5 Prateleiras Office Preto Trama - Móveis Leão</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>62830</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>OUTLET</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>REATIVADO 09-05-2024</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NAO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PRODUTO ACABADO</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Falso</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>9403.60.00</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>8290</v>
+      </c>
+      <c r="U4" t="n">
+        <v>202227</v>
+      </c>
+      <c r="V4" t="n">
+        <v>309</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>27/07/2017</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Estante Livreiro 5 Prateleiras Office Preto Trama - Móveis Leão</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A &lt;b&gt;Estante Livreiro 5 Prateleiras Office Preto Trama da Móveis Leão&lt;/b&gt; é uma ótima opção quem busca um móvel moderno e funcional para organizar livros e objetos decorativos.&lt;br /&gt;&lt;br /&gt;O design com 5 prateleiras espaçosas oferece amplo espaço para exibir sua coleção favorita. A pintura UV velluto confere um acabamento elegante e duradouro, garantindo que a estante permaneça bonita por muito mais tempo. Além disso, sua tonalidade neutra se encaixa perfeitamente em qualquer ambiente, seja no &lt;b&gt;escritório&lt;/b&gt;, &lt;b&gt;home office&lt;/b&gt; ou na &lt;b&gt;sala de estar&lt;/b&gt;. Em outras palavras, a Estante Office é a combinação ideal entre estilo, organização e praticidade. Não perca a oportunidade de adquirir esse móvel versátil que vai transformar o seu ambiente.&lt;br /&gt;&lt;br /&gt;Adicione agora mesmo ao seu carrinho!&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Dimensões dos Produtos&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Largura: &lt;/b&gt;60,5 cm.&lt;br /&gt;&lt;b&gt;Altura: &lt;/b&gt;188 cm.&lt;br /&gt;&lt;b&gt;Profundidade: &lt;/b&gt;34 cm.&lt;br /&gt;&lt;b&gt;Peso: &lt;/b&gt;26,5 kg.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Características do Produto&lt;/b&gt;&lt;br /&gt;&lt;b&gt;Material da estrutura: &lt;/b&gt;MDP&lt;br /&gt;&lt;b&gt;Acabamento: &lt;/b&gt;Pintura UV Velluto.&lt;br /&gt;&lt;b&gt;Escala de Brilho: &lt;/b&gt;Semi-fosco.&lt;br /&gt;&lt;b&gt;Peso Suportado: &lt;/b&gt;20 kg distribuídos.&lt;br /&gt;&lt;b&gt;Possui Portas: &lt;/b&gt;Não.&lt;br /&gt;&lt;b&gt;Quantidade de Prateleiras: &lt;/b&gt;5 Prateleiras.&lt;br /&gt;&lt;b&gt;Possui Pés: &lt;/b&gt;Sim.&lt;br /&gt;&lt;b&gt;Material dos Pés: &lt;/b&gt;PVC.&lt;br /&gt;&lt;b&gt;Diferenciais: &lt;/b&gt;&lt;br /&gt;- Design Moderno.&lt;br /&gt;&lt;b&gt;Sistema de Montagem: &lt;/b&gt;Parafusos/Cavilhas/Minifix.&lt;br /&gt;&lt;b&gt;Manual de Montagem: &lt;/b&gt;Sim.&lt;br /&gt;&lt;b&gt;Complexidade da Montagem: &lt;/b&gt;Baixa.&lt;br /&gt;&lt;b&gt;Volumes: &lt;/b&gt;1 Volume.&lt;br /&gt;&lt;b&gt;Conteúdo da Embalagem: &lt;/b&gt;1 Estante Livreiro.&lt;br /&gt;&lt;b&gt;Garantia do Fabricante: &lt;/b&gt;90 dias contra defeito de fabricação.&lt;br /&gt;&lt;b&gt;Montagem: &lt;/b&gt;Recomendamos que seja feita por um profissional.&lt;br /&gt;&lt;b&gt;Recomendação de Limpeza: &lt;/b&gt;Utilize pano levemente úmido.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Observações importantes&lt;/b&gt;&lt;br /&gt;- Produto para uso residencial em ambiente interno, não devendo ficar exposto diretamente ao sol, calor e umidades excessivas.&lt;br /&gt;- Pode haver alguma diferença de tonalidade entre a imagem e o produto real, por conta do tratamento de imagens e a calibração de cores do seu monitor.&lt;br /&gt;- As imagens são meramente ilustrativas, não acompanham objetos de decoração e eletrônicos.&lt;br /&gt;- Confira o estado da embalagem, não devendo assinar o comprovante em caso de danos.&lt;br /&gt;- Não asseguramos, no ato da entrega, por subir escadas/elevadores, pelo transporte por guincho em apartamentos ou montagem, desmontagem e instalações. Eventuais despesas são por conta do comprador.&lt;br /&gt;- Confira as dimensões do produto e certifique-se de que passará normalmente por supostos elevadores, portas, escadas e/ou corredores de sua residência.&lt;/p&gt;&lt;ul class="ListaDescricao" style="list-style:none;margin-left:0;padding-left:0;"&gt;	&lt;li style="margin-left:0;"&gt;	&lt;p&gt; &lt;/p&gt;	&lt;/li&gt;&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/estante_livreiro_6_prateleiras_office_moveis_leao_8290_1_318317ce0930ce69c120477536a1fbee_20210331145449.jpg</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/estante_livreiro_6_prateleiras_office_moveis_leao_8290_2_e932cff28ecaccadc841ffb286c53113_20210331145455.jpg</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>https://images.tcdn.com.br/img/img_prod/202227/estante_livreiro_6_prateleiras_office_moveis_leao_8290_3_6117f4f59da5341649ffa2f7b50bd7bf_20210331145455.jpg</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>433.44</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1005</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>30/10/2023</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>30/10/2035</t>
+        </is>
+      </c>
+      <c r="AL4" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Móveis Leão</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>7898518227940</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>90 dias após o recebimento do produto</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>157.62</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="n">
+        <v>188</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>35</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Estante para Livros em 10x Sem Juros | Pozelar</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Confira os diversos modelos de estantes para livros disponíveis na Pozelar e aproveite o parcelamento em até 10x sem juros. Armazene seus livros com estilo!</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>estante de livros, estante, estante para livros, estante sala, estante industrial, estante livros livreiro, estante livreiro, estante escritorio livreiro, estante</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>https://www.pozelar.com.br/livreiro-6-prateleiras-office-moveis-leao</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>Estante e Livreiro</t>
+        </is>
+      </c>
+      <c r="BO4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
